--- a/dop/statistica/para2/fjdhofjdo.xlsx
+++ b/dop/statistica/para2/fjdhofjdo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20390"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF6B67C-4CCC-4AE2-A643-C412AC62B905}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,8 +21,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Covid Data for all countries" type="6" refreshedVersion="3" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Covid Data for all countries" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="932" sourceFile="C:\Users\5\Downloads\Covid Data for all countries.csv" decimal="," thousands=" " comma="1">
       <textFields count="10">
         <textField/>
@@ -37,7 +38,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Covid Data for all countries1" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Covid Data for all countries1" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="932" sourceFile="C:\Users\5\Downloads\Covid Data for all countries.csv" decimal="," thousands=" " comma="1">
       <textFields count="10">
         <textField/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="392">
   <si>
     <t>Страна</t>
   </si>
@@ -1224,12 +1225,21 @@
   </si>
   <si>
     <t>частично</t>
+  </si>
+  <si>
+    <t>Развивающаяся</t>
+  </si>
+  <si>
+    <t>Развитая</t>
+  </si>
+  <si>
+    <t>Столица Гос-Ва</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1288,7 +1298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1297,6 +1307,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -13286,11 +13299,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Covid Data for all countries" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Covid Data for all countries" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Covid Data for all countries" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Covid Data for all countries" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13369,6 +13382,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -13404,6 +13434,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -13579,7 +13626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17849,11 +17896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P213"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17865,12 +17912,12 @@
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="4" customWidth="1"/>
     <col min="10" max="10" width="24.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17895,7 +17942,7 @@
       <c r="H1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J1" t="s">
@@ -17905,7 +17952,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -17921,15 +17968,26 @@
       <c r="E2" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>220</v>
       </c>
       <c r="J2">
         <v>25501388</v>
       </c>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -17945,15 +18003,26 @@
       <c r="E3" t="s">
         <v>217</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J3">
         <v>9006813</v>
       </c>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -17969,15 +18038,26 @@
       <c r="E4" t="s">
         <v>218</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>222</v>
       </c>
       <c r="J4">
         <v>10139762</v>
       </c>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -17993,15 +18073,26 @@
       <c r="E5" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G5" t="s">
+        <v>391</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>223</v>
       </c>
       <c r="J5">
         <v>2877761</v>
       </c>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -18017,15 +18108,26 @@
       <c r="E6" t="s">
         <v>218</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J6">
         <v>43852424</v>
       </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -18041,15 +18143,26 @@
       <c r="E7" t="s">
         <v>218</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>225</v>
       </c>
       <c r="J7">
         <v>32860881</v>
       </c>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -18065,15 +18178,26 @@
       <c r="E8" t="s">
         <v>218</v>
       </c>
-      <c r="I8" s="1">
+      <c r="F8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
         <v>468</v>
       </c>
       <c r="J8">
         <v>77266</v>
       </c>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -18089,15 +18213,26 @@
       <c r="E9" t="s">
         <v>218</v>
       </c>
-      <c r="I9" s="1">
+      <c r="F9" t="s">
+        <v>389</v>
+      </c>
+      <c r="G9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
         <v>442</v>
       </c>
       <c r="J9">
         <v>97934</v>
       </c>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -18113,15 +18248,26 @@
       <c r="E10" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="F10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>226</v>
       </c>
       <c r="J10">
         <v>45198395</v>
       </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -18137,15 +18283,26 @@
       <c r="E11" t="s">
         <v>217</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>227</v>
       </c>
       <c r="J11">
         <v>2963298</v>
       </c>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -18161,15 +18318,26 @@
       <c r="E12" t="s">
         <v>218</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="F12" t="s">
+        <v>389</v>
+      </c>
+      <c r="G12" t="s">
+        <v>391</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>228</v>
       </c>
       <c r="J12">
         <v>38927805</v>
       </c>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -18185,15 +18353,26 @@
       <c r="E13" t="s">
         <v>218</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>389</v>
+      </c>
+      <c r="G13" t="s">
+        <v>391</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>229</v>
       </c>
       <c r="J13">
         <v>393267</v>
       </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -18209,15 +18388,26 @@
       <c r="E14" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>230</v>
       </c>
       <c r="J14">
         <v>164699098</v>
       </c>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -18233,15 +18423,26 @@
       <c r="E15" t="s">
         <v>218</v>
       </c>
-      <c r="I15" s="1">
+      <c r="F15" t="s">
+        <v>389</v>
+      </c>
+      <c r="G15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
         <v>430</v>
       </c>
       <c r="J15">
         <v>287379</v>
       </c>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -18257,15 +18458,26 @@
       <c r="E16" t="s">
         <v>218</v>
       </c>
-      <c r="I16" s="1">
+      <c r="F16" t="s">
+        <v>389</v>
+      </c>
+      <c r="G16" t="s">
+        <v>391</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
         <v>701</v>
       </c>
       <c r="J16">
         <v>1701143</v>
       </c>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -18281,15 +18493,26 @@
       <c r="E17" t="s">
         <v>217</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="F17" t="s">
+        <v>389</v>
+      </c>
+      <c r="G17" t="s">
+        <v>391</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>232</v>
       </c>
       <c r="J17">
         <v>9449289</v>
       </c>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -18305,15 +18528,26 @@
       <c r="E18" t="s">
         <v>218</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="F18" t="s">
+        <v>389</v>
+      </c>
+      <c r="G18" t="s">
+        <v>391</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>231</v>
       </c>
       <c r="J18">
         <v>397640</v>
       </c>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -18329,15 +18563,26 @@
       <c r="E19" t="s">
         <v>218</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="F19" t="s">
+        <v>389</v>
+      </c>
+      <c r="G19" t="s">
+        <v>391</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>233</v>
       </c>
       <c r="J19">
         <v>11590064</v>
       </c>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -18353,15 +18598,26 @@
       <c r="E20" t="s">
         <v>218</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>389</v>
+      </c>
+      <c r="G20" t="s">
+        <v>391</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>234</v>
       </c>
       <c r="J20">
         <v>12122378</v>
       </c>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -18377,15 +18633,26 @@
       <c r="E21" t="s">
         <v>218</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="F21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G21" t="s">
+        <v>391</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>235</v>
       </c>
       <c r="J21">
         <v>62275</v>
       </c>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -18401,15 +18668,26 @@
       <c r="E22" t="s">
         <v>218</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>389</v>
+      </c>
+      <c r="G22" t="s">
+        <v>391</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>236</v>
       </c>
       <c r="J22">
         <v>6947685</v>
       </c>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -18425,15 +18703,26 @@
       <c r="E23" t="s">
         <v>218</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="F23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G23" t="s">
+        <v>391</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>237</v>
       </c>
       <c r="J23">
         <v>11673664</v>
       </c>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -18449,15 +18738,26 @@
       <c r="E24" t="s">
         <v>218</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G24" t="s">
+        <v>391</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>238</v>
       </c>
       <c r="J24">
         <v>3280535</v>
       </c>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -18473,15 +18773,26 @@
       <c r="E25" t="s">
         <v>218</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>389</v>
+      </c>
+      <c r="G25" t="s">
+        <v>391</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>239</v>
       </c>
       <c r="J25">
         <v>2351656</v>
       </c>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -18497,15 +18808,26 @@
       <c r="E26" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="1">
+      <c r="F26" t="s">
+        <v>389</v>
+      </c>
+      <c r="G26" t="s">
+        <v>391</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
         <v>5770</v>
       </c>
       <c r="J26">
         <v>212570544</v>
       </c>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -18521,15 +18843,26 @@
       <c r="E27" t="s">
         <v>218</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>389</v>
+      </c>
+      <c r="G27" t="s">
+        <v>391</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>240</v>
       </c>
       <c r="J27">
         <v>437505</v>
       </c>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -18545,15 +18878,26 @@
       <c r="E28" t="s">
         <v>218</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="F28" t="s">
+        <v>389</v>
+      </c>
+      <c r="G28" t="s">
+        <v>391</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>241</v>
       </c>
       <c r="J28">
         <v>20901407</v>
       </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>167</v>
       </c>
@@ -18569,15 +18913,26 @@
       <c r="E29" t="s">
         <v>218</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="F29" t="s">
+        <v>389</v>
+      </c>
+      <c r="G29" t="s">
+        <v>391</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>242</v>
       </c>
       <c r="J29">
         <v>11889174</v>
       </c>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>180</v>
       </c>
@@ -18593,15 +18948,26 @@
       <c r="E30" t="s">
         <v>218</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="F30" t="s">
+        <v>389</v>
+      </c>
+      <c r="G30" t="s">
+        <v>391</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>243</v>
       </c>
       <c r="J30">
         <v>771654</v>
       </c>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -18617,15 +18983,26 @@
       <c r="E31" t="s">
         <v>217</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="F31" t="s">
+        <v>389</v>
+      </c>
+      <c r="G31" t="s">
+        <v>391</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>244</v>
       </c>
       <c r="J31">
         <v>801</v>
       </c>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -18641,15 +19018,26 @@
       <c r="E32" t="s">
         <v>218</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="F32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G32" t="s">
+        <v>391</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>245</v>
       </c>
       <c r="J32">
         <v>67888969</v>
       </c>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -18665,15 +19053,26 @@
       <c r="E33" t="s">
         <v>217</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="F33" t="s">
+        <v>389</v>
+      </c>
+      <c r="G33" t="s">
+        <v>391</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>246</v>
       </c>
       <c r="J33">
         <v>9660054</v>
       </c>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -18689,15 +19088,26 @@
       <c r="E34" t="s">
         <v>218</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="F34" t="s">
+        <v>389</v>
+      </c>
+      <c r="G34" t="s">
+        <v>391</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>247</v>
       </c>
       <c r="J34">
         <v>28434951</v>
       </c>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -18713,15 +19123,26 @@
       <c r="E35" t="s">
         <v>218</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="F35" t="s">
+        <v>389</v>
+      </c>
+      <c r="G35" t="s">
+        <v>391</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>248</v>
       </c>
       <c r="J35">
         <v>97344194</v>
       </c>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -18737,15 +19158,26 @@
       <c r="E36" t="s">
         <v>218</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="F36" t="s">
+        <v>389</v>
+      </c>
+      <c r="G36" t="s">
+        <v>391</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>249</v>
       </c>
       <c r="J36">
         <v>2225671</v>
       </c>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -18761,15 +19193,26 @@
       <c r="E37" t="s">
         <v>218</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="F37" t="s">
+        <v>389</v>
+      </c>
+      <c r="G37" t="s">
+        <v>391</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>250</v>
       </c>
       <c r="J37">
         <v>11403193</v>
       </c>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -18785,15 +19228,26 @@
       <c r="E38" t="s">
         <v>218</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="F38" t="s">
+        <v>389</v>
+      </c>
+      <c r="G38" t="s">
+        <v>391</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>251</v>
       </c>
       <c r="J38">
         <v>786584</v>
       </c>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -18809,15 +19263,26 @@
       <c r="E39" t="s">
         <v>218</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="F39" t="s">
+        <v>389</v>
+      </c>
+      <c r="G39" t="s">
+        <v>391</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>252</v>
       </c>
       <c r="J39">
         <v>2416422</v>
       </c>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -18833,15 +19298,26 @@
       <c r="E40" t="s">
         <v>218</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="F40" t="s">
+        <v>389</v>
+      </c>
+      <c r="G40" t="s">
+        <v>391</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>253</v>
       </c>
       <c r="J40">
         <v>31073108</v>
       </c>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -18857,15 +19333,26 @@
       <c r="E41" t="s">
         <v>218</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="F41" t="s">
+        <v>389</v>
+      </c>
+      <c r="G41" t="s">
+        <v>391</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>254</v>
       </c>
       <c r="J41">
         <v>400125</v>
       </c>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -18881,15 +19368,26 @@
       <c r="E42" t="s">
         <v>218</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="F42" t="s">
+        <v>389</v>
+      </c>
+      <c r="G42" t="s">
+        <v>391</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>255</v>
       </c>
       <c r="J42">
         <v>17916069</v>
       </c>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -18905,15 +19403,26 @@
       <c r="E43" t="s">
         <v>218</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="F43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>256</v>
       </c>
       <c r="J43">
         <v>13131693</v>
       </c>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -18929,15 +19438,26 @@
       <c r="E44" t="s">
         <v>218</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="F44" t="s">
+        <v>389</v>
+      </c>
+      <c r="G44" t="s">
+        <v>391</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>257</v>
       </c>
       <c r="J44">
         <v>1967945</v>
       </c>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -18953,15 +19473,26 @@
       <c r="E45" t="s">
         <v>218</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="F45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" t="s">
+        <v>391</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>258</v>
       </c>
       <c r="J45">
         <v>83786438</v>
       </c>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -18977,15 +19508,26 @@
       <c r="E46" t="s">
         <v>218</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="F46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G46" t="s">
+        <v>391</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>259</v>
       </c>
       <c r="J46">
         <v>9905059</v>
       </c>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -19001,15 +19543,26 @@
       <c r="E47" t="s">
         <v>218</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="F47" t="s">
+        <v>389</v>
+      </c>
+      <c r="G47" t="s">
+        <v>391</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>260</v>
       </c>
       <c r="J47">
         <v>7497398</v>
       </c>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -19025,15 +19578,26 @@
       <c r="E48" t="s">
         <v>218</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="F48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G48" t="s">
+        <v>391</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>261</v>
       </c>
       <c r="J48">
         <v>112527</v>
       </c>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>199</v>
       </c>
@@ -19049,15 +19613,26 @@
       <c r="E49" t="s">
         <v>218</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="F49" t="s">
+        <v>389</v>
+      </c>
+      <c r="G49" t="s">
+        <v>391</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>262</v>
       </c>
       <c r="J49">
         <v>56771</v>
       </c>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -19073,15 +19648,26 @@
       <c r="E50" t="s">
         <v>218</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="F50" t="s">
+        <v>389</v>
+      </c>
+      <c r="G50" t="s">
+        <v>391</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>263</v>
       </c>
       <c r="J50">
         <v>10422379</v>
       </c>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -19097,15 +19683,26 @@
       <c r="E51" t="s">
         <v>218</v>
       </c>
-      <c r="I51" s="1">
+      <c r="F51" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" t="s">
+        <v>391</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
         <v>754</v>
       </c>
       <c r="J51">
         <v>3989076</v>
       </c>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -19121,15 +19718,26 @@
       <c r="E52" t="s">
         <v>218</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="F52" t="s">
+        <v>389</v>
+      </c>
+      <c r="G52" t="s">
+        <v>391</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>264</v>
       </c>
       <c r="J52">
         <v>5792389</v>
       </c>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -19145,15 +19753,26 @@
       <c r="E53" t="s">
         <v>218</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="F53" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" t="s">
+        <v>391</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>265</v>
       </c>
       <c r="J53">
         <v>988051</v>
       </c>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>196</v>
       </c>
@@ -19169,15 +19788,26 @@
       <c r="E54" t="s">
         <v>218</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="F54" t="s">
+        <v>389</v>
+      </c>
+      <c r="G54" t="s">
+        <v>391</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>266</v>
       </c>
       <c r="J54">
         <v>71988</v>
       </c>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -19193,15 +19823,26 @@
       <c r="E55" t="s">
         <v>218</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="F55" t="s">
+        <v>389</v>
+      </c>
+      <c r="G55" t="s">
+        <v>391</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>267</v>
       </c>
       <c r="J55">
         <v>10848551</v>
       </c>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -19217,15 +19858,26 @@
       <c r="E56" t="s">
         <v>218</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="F56" t="s">
+        <v>389</v>
+      </c>
+      <c r="G56" t="s">
+        <v>391</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>268</v>
       </c>
       <c r="J56">
         <v>89548102</v>
       </c>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -19241,15 +19893,26 @@
       <c r="E57" t="s">
         <v>218</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="F57" t="s">
+        <v>389</v>
+      </c>
+      <c r="G57" t="s">
+        <v>391</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>269</v>
       </c>
       <c r="J57">
         <v>102336953</v>
       </c>
-      <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -19265,15 +19928,26 @@
       <c r="E58" t="s">
         <v>218</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="F58" t="s">
+        <v>389</v>
+      </c>
+      <c r="G58" t="s">
+        <v>391</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>270</v>
       </c>
       <c r="J58">
         <v>18382115</v>
       </c>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -19289,15 +19963,26 @@
       <c r="E59" t="s">
         <v>218</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="F59" t="s">
+        <v>389</v>
+      </c>
+      <c r="G59" t="s">
+        <v>391</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>271</v>
       </c>
       <c r="J59">
         <v>597314</v>
       </c>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>147</v>
       </c>
@@ -19313,15 +19998,26 @@
       <c r="E60" t="s">
         <v>218</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="F60" t="s">
+        <v>389</v>
+      </c>
+      <c r="G60" t="s">
+        <v>391</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>272</v>
       </c>
       <c r="J60">
         <v>14863695</v>
       </c>
-      <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -19337,15 +20033,26 @@
       <c r="E61" t="s">
         <v>218</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="F61" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" t="s">
+        <v>391</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>274</v>
       </c>
       <c r="J61">
         <v>9197590</v>
       </c>
-      <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -19361,15 +20068,26 @@
       <c r="E62" t="s">
         <v>218</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="F62" t="s">
+        <v>389</v>
+      </c>
+      <c r="G62" t="s">
+        <v>391</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>275</v>
       </c>
       <c r="J62">
         <v>1380085626</v>
       </c>
-      <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -19385,15 +20103,26 @@
       <c r="E63" t="s">
         <v>218</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="F63" t="s">
+        <v>389</v>
+      </c>
+      <c r="G63" t="s">
+        <v>391</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>276</v>
       </c>
       <c r="J63">
         <v>273539841</v>
       </c>
-      <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -19409,15 +20138,26 @@
       <c r="E64" t="s">
         <v>218</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="F64" t="s">
+        <v>389</v>
+      </c>
+      <c r="G64" t="s">
+        <v>391</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J64">
         <v>10203736</v>
       </c>
-      <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -19433,15 +20173,26 @@
       <c r="E65" t="s">
         <v>218</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="F65" t="s">
+        <v>389</v>
+      </c>
+      <c r="G65" t="s">
+        <v>391</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>278</v>
       </c>
       <c r="J65">
         <v>40221975</v>
       </c>
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -19457,15 +20208,26 @@
       <c r="E66" t="s">
         <v>218</v>
       </c>
-      <c r="I66" s="1">
+      <c r="F66" t="s">
+        <v>389</v>
+      </c>
+      <c r="G66" t="s">
+        <v>391</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4">
         <v>4033</v>
       </c>
       <c r="J66">
         <v>83997756</v>
       </c>
-      <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -19481,15 +20243,26 @@
       <c r="E67" t="s">
         <v>218</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="F67" t="s">
+        <v>389</v>
+      </c>
+      <c r="G67" t="s">
+        <v>391</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>279</v>
       </c>
       <c r="J67">
         <v>4938079</v>
       </c>
-      <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -19505,15 +20278,26 @@
       <c r="E68" t="s">
         <v>218</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="F68" t="s">
+        <v>389</v>
+      </c>
+      <c r="G68" t="s">
+        <v>391</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>280</v>
       </c>
       <c r="J68">
         <v>341260</v>
       </c>
-      <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -19529,15 +20313,26 @@
       <c r="E69" t="s">
         <v>218</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="F69" t="s">
+        <v>389</v>
+      </c>
+      <c r="G69" t="s">
+        <v>391</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>281</v>
       </c>
       <c r="J69">
         <v>46754972</v>
       </c>
-      <c r="P69" s="1"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -19553,15 +20348,26 @@
       <c r="E70" t="s">
         <v>218</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="F70" t="s">
+        <v>389</v>
+      </c>
+      <c r="G70" t="s">
+        <v>391</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>282</v>
       </c>
       <c r="J70">
         <v>60460794</v>
       </c>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>123</v>
       </c>
@@ -19577,15 +20383,26 @@
       <c r="E71" t="s">
         <v>218</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="F71" t="s">
+        <v>389</v>
+      </c>
+      <c r="G71" t="s">
+        <v>391</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>283</v>
       </c>
       <c r="J71">
         <v>29825732</v>
       </c>
-      <c r="P71" s="1"/>
-    </row>
-    <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -19601,15 +20418,26 @@
       <c r="E72" t="s">
         <v>218</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="F72" t="s">
+        <v>389</v>
+      </c>
+      <c r="G72" t="s">
+        <v>391</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>284</v>
       </c>
       <c r="J72">
         <v>556020</v>
       </c>
-      <c r="P72" s="1"/>
-    </row>
-    <row r="73" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -19625,15 +20453,26 @@
       <c r="E73" t="s">
         <v>218</v>
       </c>
-      <c r="I73" s="1">
+      <c r="F73" t="s">
+        <v>389</v>
+      </c>
+      <c r="G73" t="s">
+        <v>391</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4">
         <v>9250</v>
       </c>
       <c r="J73">
         <v>18777808</v>
       </c>
-      <c r="P73" s="1"/>
-    </row>
-    <row r="74" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -19649,15 +20488,26 @@
       <c r="E74" t="s">
         <v>218</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="F74" t="s">
+        <v>389</v>
+      </c>
+      <c r="G74" t="s">
+        <v>391</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>285</v>
       </c>
       <c r="J74">
         <v>65726</v>
       </c>
-      <c r="P74" s="1"/>
-    </row>
-    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>172</v>
       </c>
@@ -19673,15 +20523,26 @@
       <c r="E75" t="s">
         <v>218</v>
       </c>
-      <c r="I75" s="1">
+      <c r="F75" t="s">
+        <v>389</v>
+      </c>
+      <c r="G75" t="s">
+        <v>391</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4">
         <v>717</v>
       </c>
       <c r="J75">
         <v>16719876</v>
       </c>
-      <c r="P75" s="1"/>
-    </row>
-    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -19697,15 +20558,26 @@
       <c r="E76" t="s">
         <v>218</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="F76" t="s">
+        <v>389</v>
+      </c>
+      <c r="G76" t="s">
+        <v>391</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>286</v>
       </c>
       <c r="J76">
         <v>26544616</v>
       </c>
-      <c r="P76" s="1"/>
-    </row>
-    <row r="77" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -19721,15 +20593,26 @@
       <c r="E77" t="s">
         <v>218</v>
       </c>
-      <c r="I77" s="2">
+      <c r="F77" t="s">
+        <v>389</v>
+      </c>
+      <c r="G77" t="s">
+        <v>391</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4">
         <v>120540</v>
       </c>
       <c r="J77">
         <v>37744314</v>
       </c>
-      <c r="P77" s="1"/>
-    </row>
-    <row r="78" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>204</v>
       </c>
@@ -19745,15 +20628,26 @@
       <c r="E78" t="s">
         <v>218</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="F78" t="s">
+        <v>389</v>
+      </c>
+      <c r="G78" t="s">
+        <v>391</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>287</v>
       </c>
       <c r="J78">
         <v>26225</v>
       </c>
-      <c r="P78" s="1"/>
-    </row>
-    <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -19769,15 +20663,26 @@
       <c r="E79" t="s">
         <v>218</v>
       </c>
-      <c r="I79" s="1">
+      <c r="F79" t="s">
+        <v>389</v>
+      </c>
+      <c r="G79" t="s">
+        <v>391</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" s="4">
         <v>2235</v>
       </c>
       <c r="J79">
         <v>2807805</v>
       </c>
-      <c r="P79" s="2"/>
-    </row>
-    <row r="80" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -19793,15 +20698,26 @@
       <c r="E80" t="s">
         <v>218</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="F80" t="s">
+        <v>389</v>
+      </c>
+      <c r="G80" t="s">
+        <v>391</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>288</v>
       </c>
       <c r="J80">
         <v>53770877</v>
       </c>
-      <c r="P80" s="1"/>
-    </row>
-    <row r="81" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>130</v>
       </c>
@@ -19817,15 +20733,26 @@
       <c r="E81" t="s">
         <v>218</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="F81" t="s">
+        <v>389</v>
+      </c>
+      <c r="G81" t="s">
+        <v>391</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>289</v>
       </c>
       <c r="J81">
         <v>1207423</v>
       </c>
-      <c r="P81" s="1"/>
-    </row>
-    <row r="82" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -19841,15 +20768,26 @@
       <c r="E82" t="s">
         <v>218</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="F82" t="s">
+        <v>389</v>
+      </c>
+      <c r="G82" t="s">
+        <v>391</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>290</v>
       </c>
       <c r="J82">
         <v>1439323776</v>
       </c>
-      <c r="P82" s="1"/>
-    </row>
-    <row r="83" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -19865,15 +20803,26 @@
       <c r="E83" t="s">
         <v>218</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="F83" t="s">
+        <v>389</v>
+      </c>
+      <c r="G83" t="s">
+        <v>391</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>291</v>
       </c>
       <c r="J83">
         <v>50885910</v>
       </c>
-      <c r="P83" s="1"/>
-    </row>
-    <row r="84" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -19889,15 +20838,26 @@
       <c r="E84" t="s">
         <v>218</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="F84" t="s">
+        <v>389</v>
+      </c>
+      <c r="G84" t="s">
+        <v>391</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>292</v>
       </c>
       <c r="J84">
         <v>869602</v>
       </c>
-      <c r="P84" s="1"/>
-    </row>
-    <row r="85" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -19913,15 +20873,26 @@
       <c r="E85" t="s">
         <v>218</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="F85" t="s">
+        <v>389</v>
+      </c>
+      <c r="G85" t="s">
+        <v>391</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>293</v>
       </c>
       <c r="J85">
         <v>5517851</v>
       </c>
-      <c r="P85" s="1"/>
-    </row>
-    <row r="86" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -19937,15 +20908,26 @@
       <c r="E86" t="s">
         <v>218</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="F86" t="s">
+        <v>389</v>
+      </c>
+      <c r="G86" t="s">
+        <v>391</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>294</v>
       </c>
       <c r="J86">
         <v>5094413</v>
       </c>
-      <c r="P86" s="1"/>
-    </row>
-    <row r="87" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>67</v>
       </c>
@@ -19961,15 +20943,26 @@
       <c r="E87" t="s">
         <v>218</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="F87" t="s">
+        <v>389</v>
+      </c>
+      <c r="G87" t="s">
+        <v>391</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>295</v>
       </c>
       <c r="J87">
         <v>26377087</v>
       </c>
-      <c r="P87" s="1"/>
-    </row>
-    <row r="88" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -19985,15 +20978,26 @@
       <c r="E88" t="s">
         <v>218</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="F88" t="s">
+        <v>389</v>
+      </c>
+      <c r="G88" t="s">
+        <v>391</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>296</v>
       </c>
       <c r="J88">
         <v>11326539</v>
       </c>
-      <c r="P88" s="1"/>
-    </row>
-    <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -20009,15 +21013,26 @@
       <c r="E89" t="s">
         <v>218</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="F89" t="s">
+        <v>389</v>
+      </c>
+      <c r="G89" t="s">
+        <v>391</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>297</v>
       </c>
       <c r="J89">
         <v>4270789</v>
       </c>
-      <c r="P89" s="1"/>
-    </row>
-    <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -20033,15 +21048,26 @@
       <c r="E90" t="s">
         <v>218</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="F90" t="s">
+        <v>389</v>
+      </c>
+      <c r="G90" t="s">
+        <v>391</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>298</v>
       </c>
       <c r="J90">
         <v>6524470</v>
       </c>
-      <c r="P90" s="1"/>
-    </row>
-    <row r="91" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -20057,15 +21083,26 @@
       <c r="E91" t="s">
         <v>218</v>
       </c>
-      <c r="I91" s="1">
+      <c r="F91" t="s">
+        <v>389</v>
+      </c>
+      <c r="G91" t="s">
+        <v>391</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" s="4">
         <v>160</v>
       </c>
       <c r="J91">
         <v>164099</v>
       </c>
-      <c r="P91" s="1"/>
-    </row>
-    <row r="92" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>195</v>
       </c>
@@ -20081,15 +21118,26 @@
       <c r="E92" t="s">
         <v>217</v>
       </c>
-      <c r="I92" s="1">
+      <c r="F92" t="s">
+        <v>389</v>
+      </c>
+      <c r="G92" t="s">
+        <v>391</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" s="4">
         <v>2586</v>
       </c>
       <c r="J92">
         <v>7275939</v>
       </c>
-      <c r="P92" s="1"/>
-    </row>
-    <row r="93" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>127</v>
       </c>
@@ -20105,15 +21153,26 @@
       <c r="E93" t="s">
         <v>218</v>
       </c>
-      <c r="I93" s="1">
+      <c r="F93" t="s">
+        <v>389</v>
+      </c>
+      <c r="G93" t="s">
+        <v>391</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93" s="4">
         <v>2040</v>
       </c>
       <c r="J93">
         <v>1885860</v>
       </c>
-      <c r="P93" s="1"/>
-    </row>
-    <row r="94" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -20129,15 +21188,26 @@
       <c r="E94" t="s">
         <v>218</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="F94" t="s">
+        <v>389</v>
+      </c>
+      <c r="G94" t="s">
+        <v>391</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>299</v>
       </c>
       <c r="J94">
         <v>2142367</v>
       </c>
-      <c r="P94" s="1"/>
-    </row>
-    <row r="95" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -20153,15 +21223,26 @@
       <c r="E95" t="s">
         <v>218</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="F95" t="s">
+        <v>389</v>
+      </c>
+      <c r="G95" t="s">
+        <v>391</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>300</v>
       </c>
       <c r="J95">
         <v>5057545</v>
       </c>
-      <c r="P95" s="1"/>
-    </row>
-    <row r="96" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -20177,15 +21258,26 @@
       <c r="E96" t="s">
         <v>218</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="F96" t="s">
+        <v>389</v>
+      </c>
+      <c r="G96" t="s">
+        <v>391</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" s="4" t="s">
         <v>301</v>
       </c>
       <c r="J96">
         <v>6825046</v>
       </c>
-      <c r="P96" s="1"/>
-    </row>
-    <row r="97" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -20201,15 +21293,26 @@
       <c r="E97" t="s">
         <v>218</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="F97" t="s">
+        <v>389</v>
+      </c>
+      <c r="G97" t="s">
+        <v>391</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>302</v>
       </c>
       <c r="J97">
         <v>6871671</v>
       </c>
-      <c r="P97" s="1"/>
-    </row>
-    <row r="98" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -20225,15 +21328,26 @@
       <c r="E98" t="s">
         <v>218</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="F98" t="s">
+        <v>389</v>
+      </c>
+      <c r="G98" t="s">
+        <v>391</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>303</v>
       </c>
       <c r="J98">
         <v>2721623</v>
       </c>
-      <c r="P98" s="1"/>
-    </row>
-    <row r="99" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>177</v>
       </c>
@@ -20249,15 +21363,26 @@
       <c r="E99" t="s">
         <v>217</v>
       </c>
-      <c r="I99" s="1">
+      <c r="F99" t="s">
+        <v>389</v>
+      </c>
+      <c r="G99" t="s">
+        <v>391</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99" s="4">
         <v>298</v>
       </c>
       <c r="J99">
         <v>38129</v>
       </c>
-      <c r="P99" s="1"/>
-    </row>
-    <row r="100" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>91</v>
       </c>
@@ -20273,15 +21398,26 @@
       <c r="E100" t="s">
         <v>217</v>
       </c>
-      <c r="I100" s="1">
+      <c r="F100" t="s">
+        <v>389</v>
+      </c>
+      <c r="G100" t="s">
+        <v>391</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" s="4">
         <v>316</v>
       </c>
       <c r="J100">
         <v>626005</v>
       </c>
-      <c r="P100" s="1"/>
-    </row>
-    <row r="101" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>155</v>
       </c>
@@ -20297,15 +21433,26 @@
       <c r="E101" t="s">
         <v>218</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="F101" t="s">
+        <v>389</v>
+      </c>
+      <c r="G101" t="s">
+        <v>391</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4" t="s">
         <v>304</v>
       </c>
       <c r="J101">
         <v>1271789</v>
       </c>
-      <c r="P101" s="1"/>
-    </row>
-    <row r="102" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>89</v>
       </c>
@@ -20321,15 +21468,26 @@
       <c r="E102" t="s">
         <v>218</v>
       </c>
-      <c r="I102" s="1">
+      <c r="F102" t="s">
+        <v>389</v>
+      </c>
+      <c r="G102" t="s">
+        <v>391</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102" s="4">
         <v>181</v>
       </c>
       <c r="J102">
         <v>4649335</v>
       </c>
-      <c r="P102" s="1"/>
-    </row>
-    <row r="103" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -20345,15 +21503,26 @@
       <c r="E103" t="s">
         <v>218</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="F103" t="s">
+        <v>389</v>
+      </c>
+      <c r="G103" t="s">
+        <v>391</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>305</v>
       </c>
       <c r="J103">
         <v>27689361</v>
       </c>
-      <c r="P103" s="1"/>
-    </row>
-    <row r="104" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -20369,15 +21538,26 @@
       <c r="E104" t="s">
         <v>218</v>
       </c>
-      <c r="I104" s="1">
+      <c r="F104" t="s">
+        <v>389</v>
+      </c>
+      <c r="G104" t="s">
+        <v>391</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104" s="4">
         <v>702</v>
       </c>
       <c r="J104">
         <v>272805</v>
       </c>
-      <c r="P104" s="1"/>
-    </row>
-    <row r="105" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>184</v>
       </c>
@@ -20393,15 +21573,26 @@
       <c r="E105" t="s">
         <v>218</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="F105" t="s">
+        <v>389</v>
+      </c>
+      <c r="G105" t="s">
+        <v>391</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" s="4" t="s">
         <v>306</v>
       </c>
       <c r="J105">
         <v>649371</v>
       </c>
-      <c r="P105" s="1"/>
-    </row>
-    <row r="106" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -20417,15 +21608,26 @@
       <c r="E106" t="s">
         <v>218</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="F106" t="s">
+        <v>389</v>
+      </c>
+      <c r="G106" t="s">
+        <v>391</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" s="4" t="s">
         <v>307</v>
       </c>
       <c r="J106">
         <v>19128766</v>
       </c>
-      <c r="P106" s="1"/>
-    </row>
-    <row r="107" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>71</v>
       </c>
@@ -20441,15 +21643,26 @@
       <c r="E107" t="s">
         <v>218</v>
       </c>
-      <c r="I107" s="1">
+      <c r="F107" t="s">
+        <v>389</v>
+      </c>
+      <c r="G107" t="s">
+        <v>391</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107" s="4">
         <v>2.02</v>
       </c>
       <c r="J107">
         <v>32367850</v>
       </c>
-      <c r="P107" s="1"/>
-    </row>
-    <row r="108" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -20465,15 +21678,26 @@
       <c r="E108" t="s">
         <v>218</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="F108" t="s">
+        <v>389</v>
+      </c>
+      <c r="G108" t="s">
+        <v>391</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>308</v>
       </c>
       <c r="J108">
         <v>20248495</v>
       </c>
-      <c r="P108" s="1"/>
-    </row>
-    <row r="109" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -20489,15 +21713,26 @@
       <c r="E109" t="s">
         <v>218</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="F109" t="s">
+        <v>389</v>
+      </c>
+      <c r="G109" t="s">
+        <v>391</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>309</v>
       </c>
       <c r="J109">
         <v>540563</v>
       </c>
-      <c r="P109" s="1"/>
-    </row>
-    <row r="110" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>144</v>
       </c>
@@ -20513,15 +21748,26 @@
       <c r="E110" t="s">
         <v>218</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="F110" t="s">
+        <v>389</v>
+      </c>
+      <c r="G110" t="s">
+        <v>391</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" s="4" t="s">
         <v>310</v>
       </c>
       <c r="J110">
         <v>441554</v>
       </c>
-      <c r="P110" s="1"/>
-    </row>
-    <row r="111" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>62</v>
       </c>
@@ -20537,15 +21783,26 @@
       <c r="E111" t="s">
         <v>218</v>
       </c>
-      <c r="I111" s="1">
+      <c r="F111" t="s">
+        <v>389</v>
+      </c>
+      <c r="G111" t="s">
+        <v>391</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" s="4">
         <v>21.3</v>
       </c>
       <c r="J111">
         <v>36912729</v>
       </c>
-      <c r="P111" s="1"/>
-    </row>
-    <row r="112" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>163</v>
       </c>
@@ -20561,15 +21818,26 @@
       <c r="E112" t="s">
         <v>218</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="F112" t="s">
+        <v>389</v>
+      </c>
+      <c r="G112" t="s">
+        <v>391</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" s="4" t="s">
         <v>311</v>
       </c>
       <c r="J112">
         <v>375262</v>
       </c>
-      <c r="P112" s="1"/>
-    </row>
-    <row r="113" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -20585,15 +21853,26 @@
       <c r="E113" t="s">
         <v>218</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="F113" t="s">
+        <v>389</v>
+      </c>
+      <c r="G113" t="s">
+        <v>391</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113" s="4" t="s">
         <v>312</v>
       </c>
       <c r="J113">
         <v>128940399</v>
       </c>
-      <c r="P113" s="1"/>
-    </row>
-    <row r="114" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>134</v>
       </c>
@@ -20609,15 +21888,26 @@
       <c r="E114" t="s">
         <v>218</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="F114" t="s">
+        <v>389</v>
+      </c>
+      <c r="G114" t="s">
+        <v>391</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114" s="4" t="s">
         <v>313</v>
       </c>
       <c r="J114">
         <v>31252301</v>
       </c>
-      <c r="P114" s="1"/>
-    </row>
-    <row r="115" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>58</v>
       </c>
@@ -20633,15 +21923,26 @@
       <c r="E115" t="s">
         <v>217</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="F115" t="s">
+        <v>389</v>
+      </c>
+      <c r="G115" t="s">
+        <v>391</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115" s="4" t="s">
         <v>314</v>
       </c>
       <c r="J115">
         <v>4033850</v>
       </c>
-      <c r="P115" s="1"/>
-    </row>
-    <row r="116" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>174</v>
       </c>
@@ -20657,15 +21958,26 @@
       <c r="E116" t="s">
         <v>217</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="F116" t="s">
+        <v>389</v>
+      </c>
+      <c r="G116" t="s">
+        <v>391</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116" s="4" t="s">
         <v>315</v>
       </c>
       <c r="J116">
         <v>39244</v>
       </c>
-      <c r="P116" s="1"/>
-    </row>
-    <row r="117" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>164</v>
       </c>
@@ -20681,15 +21993,26 @@
       <c r="E117" t="s">
         <v>217</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="F117" t="s">
+        <v>389</v>
+      </c>
+      <c r="G117" t="s">
+        <v>391</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>316</v>
       </c>
       <c r="J117">
         <v>3278436</v>
       </c>
-      <c r="P117" s="1"/>
-    </row>
-    <row r="118" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>201</v>
       </c>
@@ -20705,15 +22028,26 @@
       <c r="E118" t="s">
         <v>218</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="F118" t="s">
+        <v>389</v>
+      </c>
+      <c r="G118" t="s">
+        <v>391</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118" s="4" t="s">
         <v>317</v>
       </c>
       <c r="J118">
         <v>4992</v>
       </c>
-      <c r="P118" s="1"/>
-    </row>
-    <row r="119" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>160</v>
       </c>
@@ -20729,15 +22063,26 @@
       <c r="E119" t="s">
         <v>218</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="F119" t="s">
+        <v>389</v>
+      </c>
+      <c r="G119" t="s">
+        <v>391</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119" s="4" t="s">
         <v>318</v>
       </c>
       <c r="J119">
         <v>54412560</v>
       </c>
-      <c r="P119" s="1"/>
-    </row>
-    <row r="120" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>154</v>
       </c>
@@ -20753,15 +22098,26 @@
       <c r="E120" t="s">
         <v>218</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="F120" t="s">
+        <v>389</v>
+      </c>
+      <c r="G120" t="s">
+        <v>391</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120" s="4" t="s">
         <v>319</v>
       </c>
       <c r="J120">
         <v>2540984</v>
       </c>
-      <c r="P120" s="1"/>
-    </row>
-    <row r="121" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>60</v>
       </c>
@@ -20777,15 +22133,26 @@
       <c r="E121" t="s">
         <v>217</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="F121" t="s">
+        <v>389</v>
+      </c>
+      <c r="G121" t="s">
+        <v>391</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121" s="4" t="s">
         <v>320</v>
       </c>
       <c r="J121">
         <v>29137741</v>
       </c>
-      <c r="P121" s="1"/>
-    </row>
-    <row r="122" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -20801,15 +22168,26 @@
       <c r="E122" t="s">
         <v>218</v>
       </c>
-      <c r="I122" s="1">
+      <c r="F122" t="s">
+        <v>389</v>
+      </c>
+      <c r="G122" t="s">
+        <v>391</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122" s="4">
         <v>458</v>
       </c>
       <c r="J122">
         <v>24199536</v>
       </c>
-      <c r="P122" s="1"/>
-    </row>
-    <row r="123" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>50</v>
       </c>
@@ -20825,15 +22203,26 @@
       <c r="E123" t="s">
         <v>218</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="F123" t="s">
+        <v>389</v>
+      </c>
+      <c r="G123" t="s">
+        <v>391</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" s="4" t="s">
         <v>321</v>
       </c>
       <c r="J123">
         <v>206130241</v>
       </c>
-      <c r="P123" s="1"/>
-    </row>
-    <row r="124" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -20849,15 +22238,26 @@
       <c r="E124" t="s">
         <v>218</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="F124" t="s">
+        <v>389</v>
+      </c>
+      <c r="G124" t="s">
+        <v>391</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124" s="4" t="s">
         <v>322</v>
       </c>
       <c r="J124">
         <v>17135244</v>
       </c>
-      <c r="P124" s="1"/>
-    </row>
-    <row r="125" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>102</v>
       </c>
@@ -20873,15 +22273,26 @@
       <c r="E125" t="s">
         <v>218</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="F125" t="s">
+        <v>389</v>
+      </c>
+      <c r="G125" t="s">
+        <v>391</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125" s="4" t="s">
         <v>323</v>
       </c>
       <c r="J125">
         <v>6624943</v>
       </c>
-      <c r="P125" s="1"/>
-    </row>
-    <row r="126" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>118</v>
       </c>
@@ -20897,15 +22308,26 @@
       <c r="E126" t="s">
         <v>218</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="F126" t="s">
+        <v>389</v>
+      </c>
+      <c r="G126" t="s">
+        <v>391</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126" s="4" t="s">
         <v>324</v>
       </c>
       <c r="J126">
         <v>5002100</v>
       </c>
-      <c r="P126" s="1"/>
-    </row>
-    <row r="127" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>194</v>
       </c>
@@ -20921,15 +22343,26 @@
       <c r="E127" t="s">
         <v>218</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="F127" t="s">
+        <v>389</v>
+      </c>
+      <c r="G127" t="s">
+        <v>391</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127" s="4" t="s">
         <v>325</v>
       </c>
       <c r="J127">
         <v>285515</v>
       </c>
-      <c r="P127" s="1"/>
-    </row>
-    <row r="128" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>70</v>
       </c>
@@ -20945,15 +22378,26 @@
       <c r="E128" t="s">
         <v>218</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="F128" t="s">
+        <v>389</v>
+      </c>
+      <c r="G128" t="s">
+        <v>391</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128" s="4" t="s">
         <v>326</v>
       </c>
       <c r="J128">
         <v>5421538</v>
       </c>
-      <c r="P128" s="1"/>
-    </row>
-    <row r="129" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -20969,15 +22413,26 @@
       <c r="E129" t="s">
         <v>218</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="F129" t="s">
+        <v>389</v>
+      </c>
+      <c r="G129" t="s">
+        <v>391</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129" s="4" t="s">
         <v>327</v>
       </c>
       <c r="J129">
         <v>173873</v>
       </c>
-      <c r="P129" s="1"/>
-    </row>
-    <row r="130" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>32</v>
       </c>
@@ -20993,15 +22448,26 @@
       <c r="E130" t="s">
         <v>218</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="F130" t="s">
+        <v>389</v>
+      </c>
+      <c r="G130" t="s">
+        <v>391</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130" s="4" t="s">
         <v>328</v>
       </c>
       <c r="J130">
         <v>98909980</v>
       </c>
-      <c r="P130" s="1"/>
-    </row>
-    <row r="131" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -21017,15 +22483,26 @@
       <c r="E131" t="s">
         <v>218</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="F131" t="s">
+        <v>389</v>
+      </c>
+      <c r="G131" t="s">
+        <v>391</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131" s="4" t="s">
         <v>329</v>
       </c>
       <c r="J131">
         <v>5106343</v>
       </c>
-      <c r="P131" s="1"/>
-    </row>
-    <row r="132" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -21041,15 +22518,26 @@
       <c r="E132" t="s">
         <v>218</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="F132" t="s">
+        <v>389</v>
+      </c>
+      <c r="G132" t="s">
+        <v>391</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132" s="4" t="s">
         <v>330</v>
       </c>
       <c r="J132">
         <v>85037</v>
       </c>
-      <c r="P132" s="1"/>
-    </row>
-    <row r="133" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -21065,15 +22553,26 @@
       <c r="E133" t="s">
         <v>218</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="F133" t="s">
+        <v>389</v>
+      </c>
+      <c r="G133" t="s">
+        <v>391</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133" s="4" t="s">
         <v>331</v>
       </c>
       <c r="J133">
         <v>220896749</v>
       </c>
-      <c r="P133" s="1"/>
-    </row>
-    <row r="134" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>95</v>
       </c>
@@ -21089,15 +22588,26 @@
       <c r="E134" t="s">
         <v>218</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="F134" t="s">
+        <v>389</v>
+      </c>
+      <c r="G134" t="s">
+        <v>391</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134" s="4" t="s">
         <v>332</v>
       </c>
       <c r="J134">
         <v>5101295</v>
       </c>
-      <c r="P134" s="1"/>
-    </row>
-    <row r="135" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -21113,15 +22623,26 @@
       <c r="E135" t="s">
         <v>218</v>
       </c>
-      <c r="I135" s="1">
+      <c r="F135" t="s">
+        <v>389</v>
+      </c>
+      <c r="G135" t="s">
+        <v>391</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135" s="4">
         <v>2860</v>
       </c>
       <c r="J135">
         <v>43149967</v>
       </c>
-      <c r="P135" s="1"/>
-    </row>
-    <row r="136" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>202</v>
       </c>
@@ -21137,15 +22658,26 @@
       <c r="E136" t="s">
         <v>218</v>
       </c>
-      <c r="I136" s="1">
+      <c r="F136" t="s">
+        <v>389</v>
+      </c>
+      <c r="G136" t="s">
+        <v>391</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136" s="4">
         <v>61.2</v>
       </c>
       <c r="J136">
         <v>8947241</v>
       </c>
-      <c r="P136" s="1"/>
-    </row>
-    <row r="137" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>106</v>
       </c>
@@ -21161,15 +22693,26 @@
       <c r="E137" t="s">
         <v>218</v>
       </c>
-      <c r="I137" s="1">
+      <c r="F137" t="s">
+        <v>389</v>
+      </c>
+      <c r="G137" t="s">
+        <v>391</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137" s="4">
         <v>1001</v>
       </c>
       <c r="J137">
         <v>7132953</v>
       </c>
-      <c r="P137" s="1"/>
-    </row>
-    <row r="138" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -21185,15 +22728,26 @@
       <c r="E138" t="s">
         <v>218</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="F138" t="s">
+        <v>389</v>
+      </c>
+      <c r="G138" t="s">
+        <v>391</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138" s="4" t="s">
         <v>333</v>
       </c>
       <c r="J138">
         <v>32973640</v>
       </c>
-      <c r="P138" s="1"/>
-    </row>
-    <row r="139" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>42</v>
       </c>
@@ -21209,15 +22763,26 @@
       <c r="E139" t="s">
         <v>218</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="F139" t="s">
+        <v>389</v>
+      </c>
+      <c r="G139" t="s">
+        <v>391</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139" s="4" t="s">
         <v>334</v>
       </c>
       <c r="J139">
         <v>37846137</v>
       </c>
-      <c r="P139" s="1"/>
-    </row>
-    <row r="140" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>38</v>
       </c>
@@ -21233,15 +22798,26 @@
       <c r="E140" t="s">
         <v>218</v>
       </c>
-      <c r="I140" s="1">
+      <c r="F140" t="s">
+        <v>389</v>
+      </c>
+      <c r="G140" t="s">
+        <v>391</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140" s="4">
         <v>455</v>
       </c>
       <c r="J140">
         <v>10196343</v>
       </c>
-      <c r="P140" s="1"/>
-    </row>
-    <row r="141" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -21257,15 +22833,26 @@
       <c r="E141" t="s">
         <v>218</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="F141" t="s">
+        <v>389</v>
+      </c>
+      <c r="G141" t="s">
+        <v>391</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141" s="4" t="s">
         <v>335</v>
       </c>
       <c r="J141">
         <v>895359</v>
       </c>
-      <c r="P141" s="1"/>
-    </row>
-    <row r="142" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -21281,15 +22868,26 @@
       <c r="E142" t="s">
         <v>218</v>
       </c>
-      <c r="I142" s="1">
+      <c r="F142" t="s">
+        <v>389</v>
+      </c>
+      <c r="G142" t="s">
+        <v>391</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142" s="4">
         <v>389</v>
       </c>
       <c r="J142">
         <v>145935130</v>
       </c>
-      <c r="P142" s="1"/>
-    </row>
-    <row r="143" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>129</v>
       </c>
@@ -21305,15 +22903,26 @@
       <c r="E143" t="s">
         <v>218</v>
       </c>
-      <c r="I143" s="1">
+      <c r="F143" t="s">
+        <v>389</v>
+      </c>
+      <c r="G143" t="s">
+        <v>391</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" s="4">
         <v>261</v>
       </c>
       <c r="J143">
         <v>12951630</v>
       </c>
-      <c r="P143" s="1"/>
-    </row>
-    <row r="144" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>47</v>
       </c>
@@ -21329,15 +22938,26 @@
       <c r="E144" t="s">
         <v>218</v>
       </c>
-      <c r="I144" s="1">
+      <c r="F144" t="s">
+        <v>389</v>
+      </c>
+      <c r="G144" t="s">
+        <v>391</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144" s="4">
         <v>620</v>
       </c>
       <c r="J144">
         <v>19235880</v>
       </c>
-      <c r="P144" s="1"/>
-    </row>
-    <row r="145" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>73</v>
       </c>
@@ -21353,15 +22973,26 @@
       <c r="E145" t="s">
         <v>218</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="F145" t="s">
+        <v>389</v>
+      </c>
+      <c r="G145" t="s">
+        <v>391</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145" s="4" t="s">
         <v>336</v>
       </c>
       <c r="J145">
         <v>6486480</v>
       </c>
-      <c r="P145" s="1"/>
-    </row>
-    <row r="146" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>193</v>
       </c>
@@ -21377,15 +23008,26 @@
       <c r="E146" t="s">
         <v>218</v>
       </c>
-      <c r="I146" s="1">
+      <c r="F146" t="s">
+        <v>389</v>
+      </c>
+      <c r="G146" t="s">
+        <v>391</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146" s="4">
         <v>778</v>
       </c>
       <c r="J146">
         <v>183634</v>
       </c>
-      <c r="P146" s="1"/>
-    </row>
-    <row r="147" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>143</v>
       </c>
@@ -21401,15 +23043,26 @@
       <c r="E147" t="s">
         <v>218</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="F147" t="s">
+        <v>389</v>
+      </c>
+      <c r="G147" t="s">
+        <v>391</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147" s="4" t="s">
         <v>337</v>
       </c>
       <c r="J147">
         <v>33932</v>
       </c>
-      <c r="P147" s="1"/>
-    </row>
-    <row r="148" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>142</v>
       </c>
@@ -21425,15 +23078,26 @@
       <c r="E148" t="s">
         <v>218</v>
       </c>
-      <c r="I148" s="2">
+      <c r="F148" t="s">
+        <v>389</v>
+      </c>
+      <c r="G148" t="s">
+        <v>391</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148" s="4">
         <v>48845</v>
       </c>
       <c r="J148">
         <v>219165</v>
       </c>
-      <c r="P148" s="1"/>
-    </row>
-    <row r="149" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -21449,15 +23113,26 @@
       <c r="E149" t="s">
         <v>218</v>
       </c>
-      <c r="I149" s="1" t="s">
+      <c r="F149" t="s">
+        <v>389</v>
+      </c>
+      <c r="G149" t="s">
+        <v>391</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149" s="4" t="s">
         <v>338</v>
       </c>
       <c r="J149">
         <v>34815518</v>
       </c>
-      <c r="P149" s="1"/>
-    </row>
-    <row r="150" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>79</v>
       </c>
@@ -21473,15 +23148,26 @@
       <c r="E150" t="s">
         <v>218</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="F150" t="s">
+        <v>389</v>
+      </c>
+      <c r="G150" t="s">
+        <v>391</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150" s="4" t="s">
         <v>339</v>
       </c>
       <c r="J150">
         <v>2083373</v>
       </c>
-      <c r="P150" s="2"/>
-    </row>
-    <row r="151" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>178</v>
       </c>
@@ -21497,15 +23183,26 @@
       <c r="E151" t="s">
         <v>218</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="F151" t="s">
+        <v>389</v>
+      </c>
+      <c r="G151" t="s">
+        <v>391</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151" s="4" t="s">
         <v>340</v>
       </c>
       <c r="J151">
         <v>98352</v>
       </c>
-      <c r="P151" s="1"/>
-    </row>
-    <row r="152" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>205</v>
       </c>
@@ -21521,15 +23218,26 @@
       <c r="E152" t="s">
         <v>218</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="F152" t="s">
+        <v>389</v>
+      </c>
+      <c r="G152" t="s">
+        <v>391</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152" s="4" t="s">
         <v>341</v>
       </c>
       <c r="J152">
         <v>9877</v>
       </c>
-      <c r="P152" s="1"/>
-    </row>
-    <row r="153" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>77</v>
       </c>
@@ -21545,15 +23253,26 @@
       <c r="E153" t="s">
         <v>218</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="F153" t="s">
+        <v>389</v>
+      </c>
+      <c r="G153" t="s">
+        <v>391</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153" s="4" t="s">
         <v>342</v>
       </c>
       <c r="J153">
         <v>16742747</v>
       </c>
-      <c r="P153" s="1"/>
-    </row>
-    <row r="154" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>186</v>
       </c>
@@ -21569,15 +23288,26 @@
       <c r="E154" t="s">
         <v>218</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="F154" t="s">
+        <v>389</v>
+      </c>
+      <c r="G154" t="s">
+        <v>391</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154" s="4" t="s">
         <v>343</v>
       </c>
       <c r="J154">
         <v>38667</v>
       </c>
-      <c r="P154" s="1"/>
-    </row>
-    <row r="155" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>206</v>
       </c>
@@ -21593,15 +23323,26 @@
       <c r="E155" t="s">
         <v>218</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="F155" t="s">
+        <v>389</v>
+      </c>
+      <c r="G155" t="s">
+        <v>391</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155" s="4" t="s">
         <v>344</v>
       </c>
       <c r="J155">
         <v>5794</v>
       </c>
-      <c r="P155" s="1"/>
-    </row>
-    <row r="156" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>189</v>
       </c>
@@ -21617,15 +23358,26 @@
       <c r="E156" t="s">
         <v>218</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="F156" t="s">
+        <v>389</v>
+      </c>
+      <c r="G156" t="s">
+        <v>391</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156" s="4" t="s">
         <v>345</v>
       </c>
       <c r="J156">
         <v>110943</v>
       </c>
-      <c r="P156" s="1"/>
-    </row>
-    <row r="157" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>198</v>
       </c>
@@ -21641,15 +23393,26 @@
       <c r="E157" t="s">
         <v>218</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="F157" t="s">
+        <v>389</v>
+      </c>
+      <c r="G157" t="s">
+        <v>391</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157" s="4" t="s">
         <v>346</v>
       </c>
       <c r="J157">
         <v>53202</v>
       </c>
-      <c r="P157" s="1"/>
-    </row>
-    <row r="158" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -21665,15 +23428,26 @@
       <c r="E158" t="s">
         <v>217</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="F158" t="s">
+        <v>389</v>
+      </c>
+      <c r="G158" t="s">
+        <v>391</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158" s="4" t="s">
         <v>347</v>
       </c>
       <c r="J158">
         <v>8736919</v>
       </c>
-      <c r="P158" s="1"/>
-    </row>
-    <row r="159" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -21689,15 +23463,26 @@
       <c r="E159" t="s">
         <v>218</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="F159" t="s">
+        <v>389</v>
+      </c>
+      <c r="G159" t="s">
+        <v>391</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159" s="4" t="s">
         <v>348</v>
       </c>
       <c r="J159">
         <v>5850663</v>
       </c>
-      <c r="P159" s="1"/>
-    </row>
-    <row r="160" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>179</v>
       </c>
@@ -21713,15 +23498,26 @@
       <c r="E160" t="s">
         <v>218</v>
       </c>
-      <c r="I160" s="1">
+      <c r="F160" t="s">
+        <v>389</v>
+      </c>
+      <c r="G160" t="s">
+        <v>391</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160" s="4">
         <v>748</v>
       </c>
       <c r="J160">
         <v>42879</v>
       </c>
-      <c r="P160" s="1"/>
-    </row>
-    <row r="161" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -21737,15 +23533,26 @@
       <c r="E161" t="s">
         <v>218</v>
       </c>
-      <c r="I161" s="1">
+      <c r="F161" t="s">
+        <v>389</v>
+      </c>
+      <c r="G161" t="s">
+        <v>391</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161" s="4">
         <v>5128</v>
       </c>
       <c r="J161">
         <v>17499993</v>
       </c>
-      <c r="P161" s="1"/>
-    </row>
-    <row r="162" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>114</v>
       </c>
@@ -21761,15 +23568,26 @@
       <c r="E162" t="s">
         <v>218</v>
       </c>
-      <c r="I162" s="1">
+      <c r="F162" t="s">
+        <v>389</v>
+      </c>
+      <c r="G162" t="s">
+        <v>391</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162" s="4">
         <v>26</v>
       </c>
       <c r="J162">
         <v>5459670</v>
       </c>
-      <c r="P162" s="1"/>
-    </row>
-    <row r="163" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>115</v>
       </c>
@@ -21785,15 +23603,26 @@
       <c r="E163" t="s">
         <v>218</v>
       </c>
-      <c r="I163" s="1" t="s">
+      <c r="F163" t="s">
+        <v>389</v>
+      </c>
+      <c r="G163" t="s">
+        <v>391</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163" s="4" t="s">
         <v>349</v>
       </c>
       <c r="J163">
         <v>2078941</v>
       </c>
-      <c r="P163" s="1"/>
-    </row>
-    <row r="164" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>99</v>
       </c>
@@ -21809,15 +23638,26 @@
       <c r="E164" t="s">
         <v>218</v>
       </c>
-      <c r="I164" s="1" t="s">
+      <c r="F164" t="s">
+        <v>389</v>
+      </c>
+      <c r="G164" t="s">
+        <v>391</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164" s="4" t="s">
         <v>350</v>
       </c>
       <c r="J164">
         <v>15891663</v>
       </c>
-      <c r="P164" s="1"/>
-    </row>
-    <row r="165" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>68</v>
       </c>
@@ -21833,15 +23673,26 @@
       <c r="E165" t="s">
         <v>218</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="F165" t="s">
+        <v>389</v>
+      </c>
+      <c r="G165" t="s">
+        <v>391</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165" s="4" t="s">
         <v>351</v>
       </c>
       <c r="J165">
         <v>43848176</v>
       </c>
-      <c r="P165" s="1"/>
-    </row>
-    <row r="166" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>149</v>
       </c>
@@ -21857,15 +23708,26 @@
       <c r="E166" t="s">
         <v>218</v>
       </c>
-      <c r="I166" s="1" t="s">
+      <c r="F166" t="s">
+        <v>389</v>
+      </c>
+      <c r="G166" t="s">
+        <v>391</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J166">
         <v>586666</v>
       </c>
-      <c r="P166" s="1"/>
-    </row>
-    <row r="167" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -21881,15 +23743,26 @@
       <c r="E167" t="s">
         <v>218</v>
       </c>
-      <c r="I167" s="2">
+      <c r="F167" t="s">
+        <v>389</v>
+      </c>
+      <c r="G167" t="s">
+        <v>391</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" s="4">
         <v>447400</v>
       </c>
       <c r="J167">
         <v>331018157</v>
       </c>
-      <c r="P167" s="1"/>
-    </row>
-    <row r="168" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>119</v>
       </c>
@@ -21905,15 +23778,26 @@
       <c r="E168" t="s">
         <v>218</v>
       </c>
-      <c r="I168" s="1" t="s">
+      <c r="F168" t="s">
+        <v>389</v>
+      </c>
+      <c r="G168" t="s">
+        <v>391</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168" s="4" t="s">
         <v>353</v>
       </c>
       <c r="J168">
         <v>7977071</v>
       </c>
-      <c r="P168" s="1"/>
-    </row>
-    <row r="169" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>82</v>
       </c>
@@ -21929,15 +23813,26 @@
       <c r="E169" t="s">
         <v>218</v>
       </c>
-      <c r="I169" s="1" t="s">
+      <c r="F169" t="s">
+        <v>389</v>
+      </c>
+      <c r="G169" t="s">
+        <v>391</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169" s="4" t="s">
         <v>354</v>
       </c>
       <c r="J169">
         <v>9537520</v>
       </c>
-      <c r="P169" s="2"/>
-    </row>
-    <row r="170" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>96</v>
       </c>
@@ -21953,15 +23848,26 @@
       <c r="E170" t="s">
         <v>218</v>
       </c>
-      <c r="I170" s="1" t="s">
+      <c r="F170" t="s">
+        <v>389</v>
+      </c>
+      <c r="G170" t="s">
+        <v>391</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170" s="4" t="s">
         <v>355</v>
       </c>
       <c r="J170">
         <v>69801669</v>
       </c>
-      <c r="P170" s="1"/>
-    </row>
-    <row r="171" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>152</v>
       </c>
@@ -21977,15 +23883,26 @@
       <c r="E171" t="s">
         <v>218</v>
       </c>
-      <c r="I171" s="1" t="s">
+      <c r="F171" t="s">
+        <v>389</v>
+      </c>
+      <c r="G171" t="s">
+        <v>391</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171" s="4" t="s">
         <v>356</v>
       </c>
       <c r="J171">
         <v>23817206</v>
       </c>
-      <c r="P171" s="1"/>
-    </row>
-    <row r="172" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>151</v>
       </c>
@@ -22001,15 +23918,26 @@
       <c r="E172" t="s">
         <v>218</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="F172" t="s">
+        <v>389</v>
+      </c>
+      <c r="G172" t="s">
+        <v>391</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172" s="4" t="s">
         <v>357</v>
       </c>
       <c r="J172">
         <v>59727695</v>
       </c>
-      <c r="P172" s="1"/>
-    </row>
-    <row r="173" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -22025,15 +23953,26 @@
       <c r="E173" t="s">
         <v>218</v>
       </c>
-      <c r="I173" s="1" t="s">
+      <c r="F173" t="s">
+        <v>389</v>
+      </c>
+      <c r="G173" t="s">
+        <v>391</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173" s="4" t="s">
         <v>358</v>
       </c>
       <c r="J173">
         <v>38719</v>
       </c>
-      <c r="P173" s="1"/>
-    </row>
-    <row r="174" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>190</v>
       </c>
@@ -22049,15 +23988,26 @@
       <c r="E174" t="s">
         <v>218</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="F174" t="s">
+        <v>389</v>
+      </c>
+      <c r="G174" t="s">
+        <v>391</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174" s="4" t="s">
         <v>359</v>
       </c>
       <c r="J174">
         <v>1318476</v>
       </c>
-      <c r="P174" s="1"/>
-    </row>
-    <row r="175" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -22073,15 +24023,26 @@
       <c r="E175" t="s">
         <v>218</v>
       </c>
-      <c r="I175" s="1" t="s">
+      <c r="F175" t="s">
+        <v>389</v>
+      </c>
+      <c r="G175" t="s">
+        <v>391</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175" s="4" t="s">
         <v>360</v>
       </c>
       <c r="J175">
         <v>1399530</v>
       </c>
-      <c r="P175" s="1"/>
-    </row>
-    <row r="176" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>125</v>
       </c>
@@ -22097,15 +24058,26 @@
       <c r="E176" t="s">
         <v>218</v>
       </c>
-      <c r="I176" s="1" t="s">
+      <c r="F176" t="s">
+        <v>389</v>
+      </c>
+      <c r="G176" t="s">
+        <v>391</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176" s="4" t="s">
         <v>361</v>
       </c>
       <c r="J176">
         <v>11819320</v>
       </c>
-      <c r="P176" s="1"/>
-    </row>
-    <row r="177" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -22121,15 +24093,26 @@
       <c r="E177" t="s">
         <v>218</v>
       </c>
-      <c r="I177" s="1" t="s">
+      <c r="F177" t="s">
+        <v>389</v>
+      </c>
+      <c r="G177" t="s">
+        <v>391</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J177">
         <v>84344072</v>
       </c>
-      <c r="P177" s="1"/>
-    </row>
-    <row r="178" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>135</v>
       </c>
@@ -22145,15 +24128,26 @@
       <c r="E178" t="s">
         <v>218</v>
       </c>
-      <c r="I178" s="1" t="s">
+      <c r="F178" t="s">
+        <v>389</v>
+      </c>
+      <c r="G178" t="s">
+        <v>391</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178" s="4" t="s">
         <v>363</v>
       </c>
       <c r="J178">
         <v>45733011</v>
       </c>
-      <c r="P178" s="1"/>
-    </row>
-    <row r="179" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>69</v>
       </c>
@@ -22169,15 +24163,26 @@
       <c r="E179" t="s">
         <v>218</v>
       </c>
-      <c r="I179" s="2">
+      <c r="F179" t="s">
+        <v>389</v>
+      </c>
+      <c r="G179" t="s">
+        <v>391</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179" s="4">
         <v>1034572</v>
       </c>
       <c r="J179">
         <v>33470949</v>
       </c>
-      <c r="P179" s="1"/>
-    </row>
-    <row r="180" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>34</v>
       </c>
@@ -22193,15 +24198,26 @@
       <c r="E180" t="s">
         <v>218</v>
       </c>
-      <c r="I180" s="2">
+      <c r="F180" t="s">
+        <v>389</v>
+      </c>
+      <c r="G180" t="s">
+        <v>391</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180" s="4">
         <v>40464512</v>
       </c>
       <c r="J180">
         <v>437730137</v>
       </c>
-      <c r="P180" s="1"/>
-    </row>
-    <row r="181" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>132</v>
       </c>
@@ -22217,15 +24233,26 @@
       <c r="E181" t="s">
         <v>218</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="F181" t="s">
+        <v>389</v>
+      </c>
+      <c r="G181" t="s">
+        <v>391</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181" s="4" t="s">
         <v>382</v>
       </c>
       <c r="J181">
         <v>3473841</v>
       </c>
-      <c r="P181" s="1"/>
-    </row>
-    <row r="182" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>197</v>
       </c>
@@ -22241,15 +24268,26 @@
       <c r="E182" t="s">
         <v>218</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="F182" t="s">
+        <v>389</v>
+      </c>
+      <c r="G182" t="s">
+        <v>391</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182" s="4" t="s">
         <v>383</v>
       </c>
       <c r="J182">
         <v>896492</v>
       </c>
-      <c r="P182" s="1"/>
-    </row>
-    <row r="183" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>39</v>
       </c>
@@ -22265,15 +24303,26 @@
       <c r="E183" t="s">
         <v>218</v>
       </c>
-      <c r="I183" s="1" t="s">
+      <c r="F183" t="s">
+        <v>389</v>
+      </c>
+      <c r="G183" t="s">
+        <v>391</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183" s="4" t="s">
         <v>384</v>
       </c>
       <c r="J183">
         <v>109587217</v>
       </c>
-      <c r="P183" s="1"/>
-    </row>
-    <row r="184" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>75</v>
       </c>
@@ -22289,15 +24338,26 @@
       <c r="E184" t="s">
         <v>218</v>
       </c>
-      <c r="I184" s="2">
+      <c r="F184" t="s">
+        <v>389</v>
+      </c>
+      <c r="G184" t="s">
+        <v>391</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184" s="4">
         <v>4123277</v>
       </c>
       <c r="J184">
         <v>5540807</v>
       </c>
-      <c r="P184" s="1"/>
-    </row>
-    <row r="185" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -22313,15 +24373,26 @@
       <c r="E185" t="s">
         <v>218</v>
       </c>
-      <c r="I185" s="2">
+      <c r="F185" t="s">
+        <v>389</v>
+      </c>
+      <c r="G185" t="s">
+        <v>391</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185" s="4">
         <v>72142467</v>
       </c>
       <c r="J185">
         <v>65274927</v>
       </c>
-      <c r="P185" s="1"/>
-    </row>
-    <row r="186" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>90</v>
       </c>
@@ -22337,15 +24408,26 @@
       <c r="E186" t="s">
         <v>218</v>
       </c>
-      <c r="I186" s="1">
+      <c r="F186" t="s">
+        <v>389</v>
+      </c>
+      <c r="G186" t="s">
+        <v>391</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186" s="4">
         <v>22345</v>
       </c>
       <c r="J186">
         <v>298663</v>
       </c>
-      <c r="P186" s="1"/>
-    </row>
-    <row r="187" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>182</v>
       </c>
@@ -22361,15 +24443,26 @@
       <c r="E187" t="s">
         <v>218</v>
       </c>
-      <c r="I187" s="2">
+      <c r="F187" t="s">
+        <v>389</v>
+      </c>
+      <c r="G187" t="s">
+        <v>391</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187" s="4">
         <v>120564</v>
       </c>
       <c r="J187">
         <v>280921</v>
       </c>
-      <c r="P187" s="1"/>
-    </row>
-    <row r="188" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>98</v>
       </c>
@@ -22385,15 +24478,26 @@
       <c r="E188" t="s">
         <v>218</v>
       </c>
-      <c r="I188" s="1" t="s">
+      <c r="F188" t="s">
+        <v>389</v>
+      </c>
+      <c r="G188" t="s">
+        <v>391</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188" s="4" t="s">
         <v>380</v>
       </c>
       <c r="J188">
         <v>4104916</v>
       </c>
-      <c r="P188" s="1"/>
-    </row>
-    <row r="189" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>138</v>
       </c>
@@ -22409,15 +24513,26 @@
       <c r="E189" t="s">
         <v>218</v>
       </c>
-      <c r="I189" s="1" t="s">
+      <c r="F189" t="s">
+        <v>389</v>
+      </c>
+      <c r="G189" t="s">
+        <v>391</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189" s="4" t="s">
         <v>374</v>
       </c>
       <c r="J189">
         <v>16424003</v>
       </c>
-      <c r="P189" s="1"/>
-    </row>
-    <row r="190" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>146</v>
       </c>
@@ -22433,15 +24548,26 @@
       <c r="E190" t="s">
         <v>218</v>
       </c>
-      <c r="I190" s="1" t="s">
+      <c r="F190" t="s">
+        <v>389</v>
+      </c>
+      <c r="G190" t="s">
+        <v>391</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190" s="4" t="s">
         <v>379</v>
       </c>
       <c r="J190">
         <v>628067</v>
       </c>
-      <c r="P190" s="1"/>
-    </row>
-    <row r="191" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>66</v>
       </c>
@@ -22457,15 +24583,26 @@
       <c r="E191" t="s">
         <v>218</v>
       </c>
-      <c r="I191" s="1" t="s">
+      <c r="F191" t="s">
+        <v>389</v>
+      </c>
+      <c r="G191" t="s">
+        <v>391</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191" s="4" t="s">
         <v>381</v>
       </c>
       <c r="J191">
         <v>10709179</v>
       </c>
-      <c r="P191" s="1"/>
-    </row>
-    <row r="192" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -22481,15 +24618,26 @@
       <c r="E192" t="s">
         <v>218</v>
       </c>
-      <c r="I192" s="1" t="s">
+      <c r="F192" t="s">
+        <v>389</v>
+      </c>
+      <c r="G192" t="s">
+        <v>391</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192" s="4" t="s">
         <v>378</v>
       </c>
       <c r="J192">
         <v>19117287</v>
       </c>
-      <c r="P192" s="1"/>
-    </row>
-    <row r="193" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>45</v>
       </c>
@@ -22505,15 +24653,26 @@
       <c r="E193" t="s">
         <v>218</v>
       </c>
-      <c r="I193" s="1" t="s">
+      <c r="F193" t="s">
+        <v>389</v>
+      </c>
+      <c r="G193" t="s">
+        <v>391</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193" s="4" t="s">
         <v>364</v>
       </c>
       <c r="J193">
         <v>8655082</v>
       </c>
-      <c r="P193" s="1"/>
-    </row>
-    <row r="194" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>25</v>
       </c>
@@ -22529,15 +24688,26 @@
       <c r="E194" t="s">
         <v>218</v>
       </c>
-      <c r="I194" s="1" t="s">
+      <c r="F194" t="s">
+        <v>389</v>
+      </c>
+      <c r="G194" t="s">
+        <v>391</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194" s="4" t="s">
         <v>365</v>
       </c>
       <c r="J194">
         <v>10099756</v>
       </c>
-      <c r="P194" s="1"/>
-    </row>
-    <row r="195" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>108</v>
       </c>
@@ -22553,14 +24723,26 @@
       <c r="E195" t="s">
         <v>218</v>
       </c>
-      <c r="I195" s="1" t="s">
+      <c r="F195" t="s">
+        <v>389</v>
+      </c>
+      <c r="G195" t="s">
+        <v>391</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195" s="4" t="s">
         <v>366</v>
       </c>
       <c r="J195">
         <v>21414041</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>29</v>
       </c>
@@ -22576,14 +24758,26 @@
       <c r="E196" t="s">
         <v>218</v>
       </c>
-      <c r="I196" s="1" t="s">
+      <c r="F196" t="s">
+        <v>389</v>
+      </c>
+      <c r="G196" t="s">
+        <v>391</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196" s="4" t="s">
         <v>367</v>
       </c>
       <c r="J196">
         <v>17643922</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>97</v>
       </c>
@@ -22599,14 +24793,26 @@
       <c r="E197" t="s">
         <v>218</v>
       </c>
-      <c r="I197" s="1" t="s">
+      <c r="F197" t="s">
+        <v>389</v>
+      </c>
+      <c r="G197" t="s">
+        <v>391</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197" s="4" t="s">
         <v>368</v>
       </c>
       <c r="J197">
         <v>1402697</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>165</v>
       </c>
@@ -22622,14 +24828,26 @@
       <c r="E198" t="s">
         <v>218</v>
       </c>
-      <c r="I198" s="1" t="s">
+      <c r="F198" t="s">
+        <v>389</v>
+      </c>
+      <c r="G198" t="s">
+        <v>391</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198" s="4" t="s">
         <v>369</v>
       </c>
       <c r="J198">
         <v>3546614</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>137</v>
       </c>
@@ -22645,14 +24863,26 @@
       <c r="E199" t="s">
         <v>218</v>
       </c>
-      <c r="I199" s="1" t="s">
+      <c r="F199" t="s">
+        <v>389</v>
+      </c>
+      <c r="G199" t="s">
+        <v>391</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199" s="4" t="s">
         <v>370</v>
       </c>
       <c r="J199">
         <v>1160233</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>109</v>
       </c>
@@ -22668,14 +24898,26 @@
       <c r="E200" t="s">
         <v>218</v>
       </c>
-      <c r="I200" s="1" t="s">
+      <c r="F200" t="s">
+        <v>389</v>
+      </c>
+      <c r="G200" t="s">
+        <v>391</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200" s="4" t="s">
         <v>371</v>
       </c>
       <c r="J200">
         <v>1326544</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>83</v>
       </c>
@@ -22691,14 +24933,26 @@
       <c r="E201" t="s">
         <v>218</v>
       </c>
-      <c r="I201" s="1" t="s">
+      <c r="F201" t="s">
+        <v>389</v>
+      </c>
+      <c r="G201" t="s">
+        <v>391</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201" s="4" t="s">
         <v>372</v>
       </c>
       <c r="J201">
         <v>114958401</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>16</v>
       </c>
@@ -22714,14 +24968,26 @@
       <c r="E202" t="s">
         <v>218</v>
       </c>
-      <c r="I202" s="1" t="s">
+      <c r="F202" t="s">
+        <v>389</v>
+      </c>
+      <c r="G202" t="s">
+        <v>391</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202" s="4" t="s">
         <v>373</v>
       </c>
       <c r="J202">
         <v>59312107</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>63</v>
       </c>
@@ -22737,14 +25003,26 @@
       <c r="E203" t="s">
         <v>218</v>
       </c>
-      <c r="I203" s="1" t="s">
+      <c r="F203" t="s">
+        <v>389</v>
+      </c>
+      <c r="G203" t="s">
+        <v>391</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203" s="4" t="s">
         <v>374</v>
       </c>
       <c r="J203">
         <v>51269647</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -22760,14 +25038,26 @@
       <c r="E204" t="s">
         <v>218</v>
       </c>
-      <c r="I204" s="1" t="s">
+      <c r="F204" t="s">
+        <v>389</v>
+      </c>
+      <c r="G204" t="s">
+        <v>391</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204" s="4" t="s">
         <v>375</v>
       </c>
       <c r="J204">
         <v>11194384</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>141</v>
       </c>
@@ -22783,14 +25073,26 @@
       <c r="E205" t="s">
         <v>218</v>
       </c>
-      <c r="I205" s="1" t="s">
+      <c r="F205" t="s">
+        <v>389</v>
+      </c>
+      <c r="G205" t="s">
+        <v>391</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205" s="4" t="s">
         <v>376</v>
       </c>
       <c r="J205">
         <v>2961280</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>56</v>
       </c>
@@ -22806,19 +25108,31 @@
       <c r="E206" t="s">
         <v>218</v>
       </c>
-      <c r="I206" s="1" t="s">
+      <c r="F206" t="s">
+        <v>390</v>
+      </c>
+      <c r="G206" t="s">
+        <v>391</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206" s="4" t="s">
         <v>377</v>
       </c>
       <c r="J206">
         <v>126471668</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>385</v>
       </c>
